--- a/programs/autoencoder/data/ae_result_enc.xlsx
+++ b/programs/autoencoder/data/ae_result_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.007999761961400509</v>
+        <v>1.113045811653137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.011618847027421</v>
+        <v>-2.204225063323975</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01831200905144215</v>
+        <v>-1.179488062858582</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.002337954705581069</v>
+        <v>1.114967226982117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01235626079142094</v>
+        <v>-2.189445018768311</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01270588953047991</v>
+        <v>-1.163135290145874</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.008997469209134579</v>
+        <v>1.112057328224182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01203940249979496</v>
+        <v>-2.201410055160522</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01966129988431931</v>
+        <v>-1.188739657402039</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.004904532805085182</v>
+        <v>1.112761497497559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01251370646059513</v>
+        <v>-2.190448045730591</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01573659293353558</v>
+        <v>-1.175403118133545</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.833385072648525e-05</v>
+        <v>1.113947629928589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01318117417395115</v>
+        <v>-2.173340320587158</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01092332415282726</v>
+        <v>-1.156847238540649</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01326845306903124</v>
+        <v>1.137582182884216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01481367833912373</v>
+        <v>-2.185245752334595</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00618260633200407</v>
+        <v>-1.113545060157776</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01227894518524408</v>
+        <v>1.134746432304382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01382691226899624</v>
+        <v>-2.184179306030273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004829002544283867</v>
+        <v>-1.11789870262146</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01522189658135176</v>
+        <v>1.144963145256042</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01646933145821095</v>
+        <v>-2.187536954879761</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008145896717905998</v>
+        <v>-1.101947546005249</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0186405461281538</v>
+        <v>1.157904982566833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02038885839283466</v>
+        <v>-2.192296266555786</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01153426896780729</v>
+        <v>-1.069794893264771</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03144620358943939</v>
+        <v>1.155657410621643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02660960517823696</v>
+        <v>-2.170574903488159</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03030805848538876</v>
+        <v>-0.9971785545349121</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02487675845623016</v>
+        <v>1.128614783287048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02545678056776524</v>
+        <v>-2.197875738143921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01922889053821564</v>
+        <v>-1.036123156547546</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03291425853967667</v>
+        <v>1.080745458602905</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02645820192992687</v>
+        <v>-2.160964488983154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03249586746096611</v>
+        <v>-0.9828865528106689</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04195516183972359</v>
+        <v>1.060878992080688</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02849569730460644</v>
+        <v>-2.162481069564819</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0479494035243988</v>
+        <v>-0.9445010423660278</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05183998495340347</v>
+        <v>1.002962827682495</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03042642585933208</v>
+        <v>-2.138010740280151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06818415969610214</v>
+        <v>-0.9060695171356201</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05179860815405846</v>
+        <v>0.9838688969612122</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03025261871516705</v>
+        <v>-2.113638401031494</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06716462969779968</v>
+        <v>-0.8924503326416016</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04790230840444565</v>
+        <v>0.971930205821991</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02944109402596951</v>
+        <v>-2.066492319107056</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05939264968037605</v>
+        <v>-0.8778063654899597</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01591120101511478</v>
+        <v>1.149713158607483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01673525758087635</v>
+        <v>-2.194127559661865</v>
       </c>
       <c r="D18" t="n">
-        <v>0.009173188358545303</v>
+        <v>-1.095705151557922</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003502357983961701</v>
+        <v>1.109126567840576</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01584717817604542</v>
+        <v>-2.123071432113647</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.007903282530605793</v>
+        <v>-1.144477844238281</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01571114920079708</v>
+        <v>1.120493054389954</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01779256947338581</v>
+        <v>-2.104351997375488</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006147546693682671</v>
+        <v>-1.120132803916931</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.01080964505672455</v>
+        <v>1.110942721366882</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0150062832981348</v>
+        <v>-2.171372652053833</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02580085769295692</v>
+        <v>-1.22961688041687</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.01255781017243862</v>
+        <v>1.112844586372375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01489161513745785</v>
+        <v>-2.177387952804565</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02776982821524143</v>
+        <v>-1.239383578300476</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.03211429715156555</v>
+        <v>1.135574460029602</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01297479309141636</v>
+        <v>-2.248339891433716</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04808630794286728</v>
+        <v>-1.334799528121948</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.03659670427441597</v>
+        <v>1.143424153327942</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01249230466783047</v>
+        <v>-2.265175342559814</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05275871604681015</v>
+        <v>-1.353379130363464</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.06934343278408051</v>
+        <v>1.159608840942383</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.003622585907578468</v>
+        <v>-2.388597965240479</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.08579559624195099</v>
+        <v>-1.509029388427734</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.06925968080759048</v>
+        <v>1.159591794013977</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.003519602119922638</v>
+        <v>-2.38782811164856</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.08570747822523117</v>
+        <v>-1.507716655731201</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.08393517881631851</v>
+        <v>1.226390719413757</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01823886856436729</v>
+        <v>-2.556240797042847</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1028877422213554</v>
+        <v>-1.658558011054993</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1006037518382072</v>
+        <v>1.341119885444641</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0275981929153204</v>
+        <v>-2.831647872924805</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1263639181852341</v>
+        <v>-1.81289267539978</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1078816205263138</v>
+        <v>1.314876914024353</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.02554493956267834</v>
+        <v>-2.792044401168823</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1345158368349075</v>
+        <v>-1.727440237998962</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1268021017313004</v>
+        <v>1.328863620758057</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.01805173419415951</v>
+        <v>-2.748379230499268</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1534623205661774</v>
+        <v>-1.591805934906006</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1121465265750885</v>
+        <v>1.306228995323181</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02294367365539074</v>
+        <v>-2.758342027664185</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1383392065763474</v>
+        <v>-1.666685700416565</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.111799031496048</v>
+        <v>1.326224446296692</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02601405046880245</v>
+        <v>-2.811856985092163</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1385801732540131</v>
+        <v>-1.734109997749329</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1406760811805725</v>
+        <v>1.380224227905273</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02122002281248569</v>
+        <v>-2.798783540725708</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1678109467029572</v>
+        <v>-1.582895755767822</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1456068754196167</v>
+        <v>1.407756924629211</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02287375740706921</v>
+        <v>-2.776661157608032</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.177031397819519</v>
+        <v>-1.532332897186279</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1442258507013321</v>
+        <v>1.4427170753479</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03096080012619495</v>
+        <v>-2.767606973648071</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1775565445423126</v>
+        <v>-1.50836181640625</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1437780559062958</v>
+        <v>1.408669352531433</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.02388259209692478</v>
+        <v>-2.847601413726807</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1692809015512466</v>
+        <v>-1.610380172729492</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1325856298208237</v>
+        <v>1.376126646995544</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.02362812869250774</v>
+        <v>-2.841175556182861</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1570801287889481</v>
+        <v>-1.647937774658203</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.2128568589687347</v>
+        <v>1.626489520072937</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.03134284913539886</v>
+        <v>-3.253709316253662</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2385154664516449</v>
+        <v>-1.74852192401886</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1839346289634705</v>
+        <v>1.496736884117126</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01354305632412434</v>
+        <v>-3.248260736465454</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2091055661439896</v>
+        <v>-1.677950739860535</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1747665852308273</v>
+        <v>1.42144763469696</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01280977018177509</v>
+        <v>-3.079645156860352</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2035249173641205</v>
+        <v>-1.626915693283081</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1744699329137802</v>
+        <v>1.413528800010681</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01025799848139286</v>
+        <v>-3.150437593460083</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2032834887504578</v>
+        <v>-1.687892556190491</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1820692121982574</v>
+        <v>1.451725125312805</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01386241428554058</v>
+        <v>-3.20192289352417</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2107832133769989</v>
+        <v>-1.733870506286621</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.1738167852163315</v>
+        <v>1.412234425544739</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.008229725062847137</v>
+        <v>-3.179332971572876</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2021466791629791</v>
+        <v>-1.706676006317139</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1771041750907898</v>
+        <v>1.500497221946716</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01123701594769955</v>
+        <v>-3.227327346801758</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2032164037227631</v>
+        <v>-1.645392060279846</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1806501001119614</v>
+        <v>1.535706043243408</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01083382777869701</v>
+        <v>-3.258616924285889</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2071995735168457</v>
+        <v>-1.672332406044006</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1905391067266464</v>
+        <v>1.601839661598206</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01311431638896465</v>
+        <v>-3.354698419570923</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.217528834939003</v>
+        <v>-1.752074718475342</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1932777911424637</v>
+        <v>1.535956382751465</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01206015236675739</v>
+        <v>-3.360018014907837</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2191352844238281</v>
+        <v>-1.81783390045166</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1884195804595947</v>
+        <v>1.520703911781311</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01047548092901707</v>
+        <v>-3.350565433502197</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2133364081382751</v>
+        <v>-1.768838047981262</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1817841976881027</v>
+        <v>1.541474461555481</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01582268066704273</v>
+        <v>-3.311622619628906</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2059434652328491</v>
+        <v>-1.686800003051758</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2245067656040192</v>
+        <v>1.913347840309143</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.02941589243710041</v>
+        <v>-3.736752033233643</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2444321662187576</v>
+        <v>-1.939043045043945</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2280355244874954</v>
+        <v>1.969782590866089</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.03070470131933689</v>
+        <v>-3.781576156616211</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2489798367023468</v>
+        <v>-1.954219579696655</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2425212413072586</v>
+        <v>1.971014738082886</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.03719119727611542</v>
+        <v>-3.809795618057251</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2611852586269379</v>
+        <v>-2.020416259765625</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.2458325028419495</v>
+        <v>1.788718819618225</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.03483767062425613</v>
+        <v>-3.648703813552856</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2626714706420898</v>
+        <v>-2.022853374481201</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2525880634784698</v>
+        <v>1.841880917549133</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.04409177601337433</v>
+        <v>-3.576152801513672</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2752627432346344</v>
+        <v>-1.994085073471069</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.2494671791791916</v>
+        <v>1.819886922836304</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0521826446056366</v>
+        <v>-3.476873159408569</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2789938151836395</v>
+        <v>-1.963633060455322</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.2553102374076843</v>
+        <v>1.848688244819641</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0584588348865509</v>
+        <v>-3.497751235961914</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2849640846252441</v>
+        <v>-2.038891553878784</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.2502726316452026</v>
+        <v>1.821482062339783</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.05633246153593063</v>
+        <v>-3.453448057174683</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.2814803421497345</v>
+        <v>-1.994925498962402</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.2457234412431717</v>
+        <v>1.802588820457458</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.05480282008647919</v>
+        <v>-3.424382925033569</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.2780919671058655</v>
+        <v>-1.961462020874023</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2510082423686981</v>
+        <v>1.823035597801208</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.05701668560504913</v>
+        <v>-3.455891132354736</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.2816376388072968</v>
+        <v>-2.000164747238159</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2494846135377884</v>
+        <v>1.833298087120056</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.05421397835016251</v>
+        <v>-3.477807998657227</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.281549483537674</v>
+        <v>-1.976919174194336</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2609725892543793</v>
+        <v>1.90764856338501</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.05892308056354523</v>
+        <v>-3.592459201812744</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2916302382946014</v>
+        <v>-2.066624641418457</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.2885687351226807</v>
+        <v>2.090453624725342</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.04869379103183746</v>
+        <v>-4.061256885528564</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3137017488479614</v>
+        <v>-2.319927930831909</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.2845715284347534</v>
+        <v>2.052728414535522</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.05165950953960419</v>
+        <v>-3.988677978515625</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3131562471389771</v>
+        <v>-2.319643020629883</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2856346964836121</v>
+        <v>2.056742191314697</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0531478151679039</v>
+        <v>-4.014884948730469</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3150880634784698</v>
+        <v>-2.372229814529419</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2837353348731995</v>
+        <v>2.055538892745972</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.04832641035318375</v>
+        <v>-4.046944141387939</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.3105034828186035</v>
+        <v>-2.322085857391357</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.2769647240638733</v>
+        <v>2.013915061950684</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.042177714407444</v>
+        <v>-3.953037261962891</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.299326479434967</v>
+        <v>-2.220013618469238</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2783169448375702</v>
+        <v>2.018568754196167</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.04003351181745529</v>
+        <v>-3.975358486175537</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2990493774414062</v>
+        <v>-2.230851173400879</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.3304385244846344</v>
+        <v>2.418621301651001</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.05740170180797577</v>
+        <v>-4.283103466033936</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3464710116386414</v>
+        <v>-2.368027210235596</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.3389066457748413</v>
+        <v>2.459620237350464</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.05959941446781158</v>
+        <v>-4.342543125152588</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3539918661117554</v>
+        <v>-2.443323373794556</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3465462625026703</v>
+        <v>2.551487445831299</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.06407394260168076</v>
+        <v>-4.436997890472412</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3590071201324463</v>
+        <v>-2.509992361068726</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.3459356725215912</v>
+        <v>2.554633617401123</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.06478620320558548</v>
+        <v>-4.447437286376953</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3579092621803284</v>
+        <v>-2.475360631942749</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.350211888551712</v>
+        <v>2.551656484603882</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.065163753926754</v>
+        <v>-4.473886489868164</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.361503392457962</v>
+        <v>-2.48082971572876</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.3508601188659668</v>
+        <v>2.621173143386841</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.06779558211565018</v>
+        <v>-4.535706996917725</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.3612428605556488</v>
+        <v>-2.513796329498291</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.3550523221492767</v>
+        <v>2.72072958946228</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.05179790407419205</v>
+        <v>-4.243018627166748</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4034951031208038</v>
+        <v>-2.548388004302979</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.3631457090377808</v>
+        <v>2.759848117828369</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.04276749491691589</v>
+        <v>-4.172816753387451</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4269474148750305</v>
+        <v>-2.50183629989624</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.3623825907707214</v>
+        <v>2.804688692092896</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.04011347144842148</v>
+        <v>-4.170951366424561</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4332613050937653</v>
+        <v>-2.503933191299438</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.3614713549613953</v>
+        <v>2.795690059661865</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.04075395315885544</v>
+        <v>-4.178276538848877</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4309393167495728</v>
+        <v>-2.505119800567627</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.3576514720916748</v>
+        <v>2.747280359268188</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.04193370044231415</v>
+        <v>-4.206551074981689</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4224294126033783</v>
+        <v>-2.538351535797119</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.3582262694835663</v>
+        <v>2.768784046173096</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.03856941312551498</v>
+        <v>-4.166580677032471</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4303806722164154</v>
+        <v>-2.524971961975098</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.3650050461292267</v>
+        <v>2.611289262771606</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.03388982266187668</v>
+        <v>-4.001686573028564</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4373181760311127</v>
+        <v>-2.457036018371582</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.3627603948116302</v>
+        <v>2.610263824462891</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.03350742161273956</v>
+        <v>-3.939412355422974</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4461762011051178</v>
+        <v>-2.359050273895264</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.361627608537674</v>
+        <v>2.542965412139893</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0298092570155859</v>
+        <v>-3.872325658798218</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4496386349201202</v>
+        <v>-2.297089576721191</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.3611924350261688</v>
+        <v>2.604541540145874</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.02990325726568699</v>
+        <v>-3.907140493392944</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.4552763104438782</v>
+        <v>-2.301120042800903</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.3547901809215546</v>
+        <v>2.572957754135132</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.01912799663841724</v>
+        <v>-3.839432716369629</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.4660216271877289</v>
+        <v>-2.236433982849121</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.3643757700920105</v>
+        <v>2.651771545410156</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.02266464941203594</v>
+        <v>-3.88544750213623</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4789395332336426</v>
+        <v>-2.286026000976562</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.371732622385025</v>
+        <v>2.694643259048462</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.02387174032628536</v>
+        <v>-3.840487241744995</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.4993860423564911</v>
+        <v>-2.298272609710693</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.371398001909256</v>
+        <v>2.713628530502319</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.02227735705673695</v>
+        <v>-3.844784736633301</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4994992315769196</v>
+        <v>-2.309111595153809</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.3676488995552063</v>
+        <v>2.711997747421265</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.02444847859442234</v>
+        <v>-3.835480213165283</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4938806593418121</v>
+        <v>-2.30856990814209</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.3646519184112549</v>
+        <v>2.663913249969482</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.02632961980998516</v>
+        <v>-3.806644678115845</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4900996088981628</v>
+        <v>-2.278930902481079</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.3674640655517578</v>
+        <v>2.578155994415283</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.02451854012906551</v>
+        <v>-3.740996599197388</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.4958662092685699</v>
+        <v>-2.220987796783447</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3671694695949554</v>
+        <v>2.502089500427246</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.02364994026720524</v>
+        <v>-3.684478282928467</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4922817051410675</v>
+        <v>-2.186483383178711</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.3676183223724365</v>
+        <v>2.465710401535034</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.0204849299043417</v>
+        <v>-3.651340961456299</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.4957518875598907</v>
+        <v>-2.159327268600464</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.3719004094600677</v>
+        <v>2.449702262878418</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.01826734654605389</v>
+        <v>-3.641040563583374</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.4984890520572662</v>
+        <v>-2.157784938812256</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.3806281983852386</v>
+        <v>2.426230192184448</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.006699768826365471</v>
+        <v>-3.633346557617188</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5071834921836853</v>
+        <v>-2.164489269256592</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.3892286717891693</v>
+        <v>2.421922206878662</v>
       </c>
       <c r="C95" t="n">
-        <v>0.007622735574841499</v>
+        <v>-3.661800146102905</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5189235806465149</v>
+        <v>-2.236765384674072</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3955454230308533</v>
+        <v>2.407592296600342</v>
       </c>
       <c r="C96" t="n">
-        <v>0.02753311581909657</v>
+        <v>-3.666259527206421</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.530823290348053</v>
+        <v>-2.288186073303223</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.4110726118087769</v>
+        <v>2.465103149414062</v>
       </c>
       <c r="C97" t="n">
-        <v>0.05482544749975204</v>
+        <v>-3.722782611846924</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5550837516784668</v>
+        <v>-2.436894416809082</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.4425910115242004</v>
+        <v>2.572074174880981</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07052995264530182</v>
+        <v>-3.768002510070801</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5977813601493835</v>
+        <v>-2.604285717010498</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.4427413642406464</v>
+        <v>2.493838787078857</v>
       </c>
       <c r="C99" t="n">
-        <v>0.06651639938354492</v>
+        <v>-3.791073799133301</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5827810168266296</v>
+        <v>-2.615966320037842</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.4485649764537811</v>
+        <v>2.50853967666626</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07040554285049438</v>
+        <v>-3.736700773239136</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5971654653549194</v>
+        <v>-2.608609437942505</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.440763920545578</v>
+        <v>2.524561643600464</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07026760280132294</v>
+        <v>-3.714019536972046</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.59359210729599</v>
+        <v>-2.575411796569824</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.4479248821735382</v>
+        <v>2.550100564956665</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07298727333545685</v>
+        <v>-3.720402956008911</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.6069024205207825</v>
+        <v>-2.574958801269531</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.4481934905052185</v>
+        <v>2.664667129516602</v>
       </c>
       <c r="C103" t="n">
-        <v>0.06883851438760757</v>
+        <v>-3.834270477294922</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.6041412353515625</v>
+        <v>-2.64275598526001</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.4583888947963715</v>
+        <v>2.76766300201416</v>
       </c>
       <c r="C104" t="n">
-        <v>0.02224027179181576</v>
+        <v>-4.047574520111084</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.578517735004425</v>
+        <v>-2.838204860687256</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.4703589379787445</v>
+        <v>2.808051347732544</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.001089377328753471</v>
+        <v>-4.109999179840088</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.5871361494064331</v>
+        <v>-2.866906642913818</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.4553233981132507</v>
+        <v>2.793918609619141</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02096645720303059</v>
+        <v>-4.035564422607422</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5826221108436584</v>
+        <v>-2.793478488922119</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.453767716884613</v>
+        <v>2.804658174514771</v>
       </c>
       <c r="C107" t="n">
-        <v>0.05689333379268646</v>
+        <v>-3.961923599243164</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.6082958579063416</v>
+        <v>-2.713887214660645</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.4482204616069794</v>
+        <v>2.829646587371826</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04956503957509995</v>
+        <v>-4.017301082611084</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5989324450492859</v>
+        <v>-2.74382209777832</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4586770832538605</v>
+        <v>2.907805204391479</v>
       </c>
       <c r="C109" t="n">
-        <v>0.07179609686136246</v>
+        <v>-4.015482425689697</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.6277853846549988</v>
+        <v>-2.719793796539307</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.474019318819046</v>
+        <v>2.831154584884644</v>
       </c>
       <c r="C110" t="n">
-        <v>0.07406514883041382</v>
+        <v>-3.888848066329956</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.6405296325683594</v>
+        <v>-2.644510746002197</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.4932685494422913</v>
+        <v>2.738495588302612</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08117622882127762</v>
+        <v>-3.755690097808838</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.668127179145813</v>
+        <v>-2.512317180633545</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.497369259595871</v>
+        <v>2.757897138595581</v>
       </c>
       <c r="C112" t="n">
-        <v>0.081448994576931</v>
+        <v>-3.751224279403687</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.6727181077003479</v>
+        <v>-2.529112815856934</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.4842416942119598</v>
+        <v>2.814694166183472</v>
       </c>
       <c r="C113" t="n">
-        <v>0.07608328014612198</v>
+        <v>-3.838814258575439</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.6536145806312561</v>
+        <v>-2.624256610870361</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.4918852746486664</v>
+        <v>2.867246389389038</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0789613202214241</v>
+        <v>-3.858078002929688</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.6677353978157043</v>
+        <v>-2.617774486541748</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.5177844762802124</v>
+        <v>2.719208478927612</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09059935808181763</v>
+        <v>-3.676740169525146</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.7099308371543884</v>
+        <v>-2.384316444396973</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.5085053443908691</v>
+        <v>2.628422975540161</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09234513342380524</v>
+        <v>-3.592440366744995</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.7052958607673645</v>
+        <v>-2.255987882614136</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.5120131373405457</v>
+        <v>2.568771123886108</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09539028257131577</v>
+        <v>-3.519774436950684</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.7119436860084534</v>
+        <v>-2.202415466308594</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.5185767412185669</v>
+        <v>2.683507204055786</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0911950096487999</v>
+        <v>-3.619649648666382</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.7099595665931702</v>
+        <v>-2.366660356521606</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.5185413360595703</v>
+        <v>2.725768327713013</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09439694881439209</v>
+        <v>-3.662609100341797</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.718267023563385</v>
+        <v>-2.330097198486328</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.5143216848373413</v>
+        <v>2.753621339797974</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09586071223020554</v>
+        <v>-3.652686357498169</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.7170076966285706</v>
+        <v>-2.30104923248291</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.5131094455718994</v>
+        <v>2.909345388412476</v>
       </c>
       <c r="C121" t="n">
-        <v>0.09227076172828674</v>
+        <v>-3.817135095596313</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.7166786789894104</v>
+        <v>-2.484504699707031</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.519071102142334</v>
+        <v>2.857390642166138</v>
       </c>
       <c r="C122" t="n">
-        <v>0.09632889181375504</v>
+        <v>-3.689172029495239</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.7228290438652039</v>
+        <v>-2.404696464538574</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.5212315320968628</v>
+        <v>2.836562395095825</v>
       </c>
       <c r="C123" t="n">
-        <v>0.09624576568603516</v>
+        <v>-3.674055099487305</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.724202036857605</v>
+        <v>-2.395472049713135</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.5254945755004883</v>
+        <v>2.810668706893921</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09948190301656723</v>
+        <v>-3.61497950553894</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.7300789952278137</v>
+        <v>-2.331475734710693</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.5351688861846924</v>
+        <v>2.749274015426636</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1013331115245819</v>
+        <v>-3.495110273361206</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.7399198412895203</v>
+        <v>-2.283068180084229</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.5425673127174377</v>
+        <v>2.801428556442261</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09710005670785904</v>
+        <v>-3.552541255950928</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.7462509870529175</v>
+        <v>-2.397282600402832</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.5440701246261597</v>
+        <v>2.796974420547485</v>
       </c>
       <c r="C127" t="n">
-        <v>0.09394054859876633</v>
+        <v>-3.548027515411377</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.7442607879638672</v>
+        <v>-2.44884467124939</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.5519168376922607</v>
+        <v>2.828155994415283</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09458491951227188</v>
+        <v>-3.525637149810791</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.7541394233703613</v>
+        <v>-2.473579883575439</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.5537713170051575</v>
+        <v>2.825735330581665</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09703971445560455</v>
+        <v>-3.497501611709595</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.759026825428009</v>
+        <v>-2.426375389099121</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.5486413836479187</v>
+        <v>2.760924339294434</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1004897356033325</v>
+        <v>-3.457486391067505</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.7546897530555725</v>
+        <v>-2.319979906082153</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.554290235042572</v>
+        <v>2.795136213302612</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09897879511117935</v>
+        <v>-3.454455852508545</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.7603927254676819</v>
+        <v>-2.384513854980469</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.5548725128173828</v>
+        <v>2.78476095199585</v>
       </c>
       <c r="C132" t="n">
-        <v>0.09734470397233963</v>
+        <v>-3.463356018066406</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.7596439719200134</v>
+        <v>-2.444195032119751</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.5617415308952332</v>
+        <v>2.755016088485718</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1004060283303261</v>
+        <v>-3.405631303787231</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7688737511634827</v>
+        <v>-2.429352045059204</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.5728762745857239</v>
+        <v>2.746681928634644</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1028483733534813</v>
+        <v>-3.361723899841309</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.786462128162384</v>
+        <v>-2.390043258666992</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.5696234107017517</v>
+        <v>2.757560014724731</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1014543473720551</v>
+        <v>-3.38557505607605</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.7797068953514099</v>
+        <v>-2.424154758453369</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.5739427804946899</v>
+        <v>2.711848497390747</v>
       </c>
       <c r="C136" t="n">
-        <v>0.103587806224823</v>
+        <v>-3.325571775436401</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.7877272963523865</v>
+        <v>-2.384054183959961</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.5678357481956482</v>
+        <v>2.669658184051514</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1036336049437523</v>
+        <v>-3.296985387802124</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.7814476490020752</v>
+        <v>-2.364148378372192</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.564046323299408</v>
+        <v>2.635051727294922</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1056662574410439</v>
+        <v>-3.225006341934204</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.7834733128547668</v>
+        <v>-2.270468711853027</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.5668591856956482</v>
+        <v>2.682552576065063</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1048494130373001</v>
+        <v>-3.28292989730835</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.7835661768913269</v>
+        <v>-2.31046199798584</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.5663238763809204</v>
+        <v>2.615106344223022</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1057918295264244</v>
+        <v>-3.195080280303955</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.7874861359596252</v>
+        <v>-2.266574382781982</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.5727039575576782</v>
+        <v>2.624585390090942</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1045219227671623</v>
+        <v>-3.198116302490234</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.7943134307861328</v>
+        <v>-2.325502395629883</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.5920578241348267</v>
+        <v>2.817890167236328</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1022582426667213</v>
+        <v>-3.400087594985962</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.8017038702964783</v>
+        <v>-2.468204498291016</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.5873599052429199</v>
+        <v>2.799853086471558</v>
       </c>
       <c r="C143" t="n">
-        <v>0.102955274283886</v>
+        <v>-3.38520359992981</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.799838125705719</v>
+        <v>-2.436679601669312</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.5854988098144531</v>
+        <v>2.808348894119263</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1022381186485291</v>
+        <v>-3.39576530456543</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.7969884276390076</v>
+        <v>-2.4450364112854</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.6671071648597717</v>
+        <v>3.321346521377563</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1037792712450027</v>
+        <v>-3.641300439834595</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.8750755786895752</v>
+        <v>-2.905502319335938</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.7427281737327576</v>
+        <v>4.008706569671631</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1232414916157722</v>
+        <v>-3.949772596359253</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.9998845458030701</v>
+        <v>-3.119015216827393</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.7731958627700806</v>
+        <v>4.139204502105713</v>
       </c>
       <c r="C147" t="n">
-        <v>0.12274120002985</v>
+        <v>-4.044801235198975</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.048026442527771</v>
+        <v>-3.128506183624268</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.7550603151321411</v>
+        <v>3.98973822593689</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1212712600827217</v>
+        <v>-4.031592845916748</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.006736874580383</v>
+        <v>-3.117287158966064</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.7517675161361694</v>
+        <v>3.914817810058594</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1206719353795052</v>
+        <v>-4.05393648147583</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.9986631274223328</v>
+        <v>-3.109763145446777</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.7332864999771118</v>
+        <v>3.792951583862305</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1175372526049614</v>
+        <v>-3.930621385574341</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.9729116559028625</v>
+        <v>-3.037735462188721</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.7241681218147278</v>
+        <v>3.672470808029175</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1107696071267128</v>
+        <v>-3.837857961654663</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.9622784852981567</v>
+        <v>-2.92977237701416</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.7206799983978271</v>
+        <v>3.613284826278687</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1065680608153343</v>
+        <v>-3.764987468719482</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.9578409790992737</v>
+        <v>-2.881076335906982</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.7024431228637695</v>
+        <v>3.480507135391235</v>
       </c>
       <c r="C153" t="n">
-        <v>0.09421595931053162</v>
+        <v>-3.668037176132202</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.9305525422096252</v>
+        <v>-2.829772472381592</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.6904050707817078</v>
+        <v>3.430290222167969</v>
       </c>
       <c r="C154" t="n">
-        <v>0.08546996116638184</v>
+        <v>-3.623718738555908</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.917797327041626</v>
+        <v>-2.823123931884766</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.7020899057388306</v>
+        <v>3.514214277267456</v>
       </c>
       <c r="C155" t="n">
-        <v>0.09836723655462265</v>
+        <v>-3.682357549667358</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.928355872631073</v>
+        <v>-2.872976779937744</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.6962822675704956</v>
+        <v>3.447670936584473</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1068412885069847</v>
+        <v>-3.660552978515625</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.9157708287239075</v>
+        <v>-2.863889217376709</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.7339358925819397</v>
+        <v>2.704671621322632</v>
       </c>
       <c r="C157" t="n">
-        <v>0.06153637915849686</v>
+        <v>-2.92836332321167</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.08637535572052</v>
+        <v>-2.189444780349731</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.002042889595032</v>
+        <v>1.883165955543518</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2923811972141266</v>
+        <v>-2.13261342048645</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.676889419555664</v>
+        <v>-1.684218287467957</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.043882727622986</v>
+        <v>1.840043067932129</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3044382929801941</v>
+        <v>-2.123228311538696</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.745311260223389</v>
+        <v>-1.620004177093506</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.019588828086853</v>
+        <v>1.821238398551941</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3169345557689667</v>
+        <v>-2.054835557937622</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.735068082809448</v>
+        <v>-1.61402416229248</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.040363669395447</v>
+        <v>1.834269881248474</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3160436153411865</v>
+        <v>-2.105334043502808</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.759223103523254</v>
+        <v>-1.61943244934082</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.00230073928833</v>
+        <v>1.76819920539856</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3257735967636108</v>
+        <v>-2.050033807754517</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.723352313041687</v>
+        <v>-1.593832015991211</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.9946693181991577</v>
+        <v>1.757866382598877</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3278027772903442</v>
+        <v>-2.043756246566772</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.716469883918762</v>
+        <v>-1.587364912033081</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.053291916847229</v>
+        <v>1.824756741523743</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3235052227973938</v>
+        <v>-2.09429669380188</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.784712433815002</v>
+        <v>-1.577944159507751</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.069411158561707</v>
+        <v>1.933826088905334</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3141902685165405</v>
+        <v>-2.156334400177002</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.799502730369568</v>
+        <v>-1.600185632705688</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.07628071308136</v>
+        <v>1.920479893684387</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3088243901729584</v>
+        <v>-2.146765470504761</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.798373937606812</v>
+        <v>-1.581604719161987</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.041345834732056</v>
+        <v>1.895423531532288</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3199382722377777</v>
+        <v>-2.146527051925659</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.771628737449646</v>
+        <v>-1.614643096923828</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.9812558889389038</v>
+        <v>1.819392681121826</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3218892216682434</v>
+        <v>-2.068767309188843</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.69575834274292</v>
+        <v>-1.622873306274414</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.9560566544532776</v>
+        <v>1.787564039230347</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3259205222129822</v>
+        <v>-2.086664915084839</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.672471523284912</v>
+        <v>-1.600797176361084</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.9627357721328735</v>
+        <v>2.04136061668396</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2408443689346313</v>
+        <v>-2.31748104095459</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.553434252738953</v>
+        <v>-1.746552109718323</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.9457021951675415</v>
+        <v>2.198384046554565</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2149317264556885</v>
+        <v>-2.467171192169189</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.512508511543274</v>
+        <v>-1.776751041412354</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.9347944259643555</v>
+        <v>2.161623001098633</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2273266166448593</v>
+        <v>-2.452269077301025</v>
       </c>
       <c r="D172" t="n">
-        <v>-1.50311815738678</v>
+        <v>-1.733572244644165</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.9379542469978333</v>
+        <v>2.161699533462524</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2376009821891785</v>
+        <v>-2.492901802062988</v>
       </c>
       <c r="D173" t="n">
-        <v>-1.516302704811096</v>
+        <v>-1.720510244369507</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.9121353626251221</v>
+        <v>2.043330669403076</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2656231224536896</v>
+        <v>-2.378152847290039</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.524161696434021</v>
+        <v>-1.612521767616272</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.8829448223114014</v>
+        <v>2.10571813583374</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2348040342330933</v>
+        <v>-2.352968215942383</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.459035277366638</v>
+        <v>-1.63787579536438</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.8914415836334229</v>
+        <v>2.200047254562378</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1467443853616714</v>
+        <v>-2.366996049880981</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.399429321289062</v>
+        <v>-1.669373273849487</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.900080680847168</v>
+        <v>2.248143196105957</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1501494795084</v>
+        <v>-2.431451320648193</v>
       </c>
       <c r="D177" t="n">
-        <v>-1.41106390953064</v>
+        <v>-1.718087315559387</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.8909006118774414</v>
+        <v>2.361940860748291</v>
       </c>
       <c r="C178" t="n">
-        <v>0.09884118288755417</v>
+        <v>-2.481269598007202</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.365696310997009</v>
+        <v>-1.777504563331604</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.8958770036697388</v>
+        <v>2.352595806121826</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1348781287670135</v>
+        <v>-2.566740036010742</v>
       </c>
       <c r="D179" t="n">
-        <v>-1.395678043365479</v>
+        <v>-1.790414094924927</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.8969513773918152</v>
+        <v>2.251026391983032</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1909343600273132</v>
+        <v>-2.533060550689697</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.426870465278625</v>
+        <v>-1.700737118721008</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.8907321691513062</v>
+        <v>2.313749074935913</v>
       </c>
       <c r="C181" t="n">
-        <v>0.1642879992723465</v>
+        <v>-2.56540584564209</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.398114681243896</v>
+        <v>-1.72691810131073</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.8596028685569763</v>
+        <v>2.34610390663147</v>
       </c>
       <c r="C182" t="n">
-        <v>0.08620650321245193</v>
+        <v>-2.460074901580811</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.305366635322571</v>
+        <v>-1.680081844329834</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.8566694259643555</v>
+        <v>2.374345064163208</v>
       </c>
       <c r="C183" t="n">
-        <v>0.08170159906148911</v>
+        <v>-2.431154012680054</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.297096371650696</v>
+        <v>-1.678284525871277</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.8523896336555481</v>
+        <v>2.422955513000488</v>
       </c>
       <c r="C184" t="n">
-        <v>0.07909012585878372</v>
+        <v>-2.413157939910889</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.292109131813049</v>
+        <v>-1.689208984375</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.8310233950614929</v>
+        <v>2.503172159194946</v>
       </c>
       <c r="C185" t="n">
-        <v>0.06530465930700302</v>
+        <v>-2.382771968841553</v>
       </c>
       <c r="D185" t="n">
-        <v>-1.252842426300049</v>
+        <v>-1.685660123825073</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.8046911954879761</v>
+        <v>2.643459320068359</v>
       </c>
       <c r="C186" t="n">
-        <v>0.06406999379396439</v>
+        <v>-2.497995615005493</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.213265061378479</v>
+        <v>-1.785016775131226</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.8030251860618591</v>
+        <v>2.607221841812134</v>
       </c>
       <c r="C187" t="n">
-        <v>0.06760653108358383</v>
+        <v>-2.430983781814575</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.213912606239319</v>
+        <v>-1.759127140045166</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.8172012567520142</v>
+        <v>2.508286237716675</v>
       </c>
       <c r="C188" t="n">
-        <v>0.07019674032926559</v>
+        <v>-2.341707468032837</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.236590385437012</v>
+        <v>-1.683118581771851</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.8280736804008484</v>
+        <v>2.451722383499146</v>
       </c>
       <c r="C189" t="n">
-        <v>0.08188506215810776</v>
+        <v>-2.254190444946289</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.261698126792908</v>
+        <v>-1.632401943206787</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.034064412117004</v>
+        <v>2.199821710586548</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5709657669067383</v>
+        <v>-2.154030323028564</v>
       </c>
       <c r="D190" t="n">
-        <v>-2.042978286743164</v>
+        <v>-1.491378307342529</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.051948189735413</v>
+        <v>2.192916870117188</v>
       </c>
       <c r="C191" t="n">
-        <v>0.590245246887207</v>
+        <v>-2.07549524307251</v>
       </c>
       <c r="D191" t="n">
-        <v>-2.081963777542114</v>
+        <v>-1.43943202495575</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.060425639152527</v>
+        <v>2.176094770431519</v>
       </c>
       <c r="C192" t="n">
-        <v>0.6022211313247681</v>
+        <v>-1.993499994277954</v>
       </c>
       <c r="D192" t="n">
-        <v>-2.101600885391235</v>
+        <v>-1.380064010620117</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-1.048219561576843</v>
+        <v>2.141446113586426</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5983622074127197</v>
+        <v>-1.954186916351318</v>
       </c>
       <c r="D193" t="n">
-        <v>-2.080750465393066</v>
+        <v>-1.361527442932129</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.066039800643921</v>
+        <v>1.945239067077637</v>
       </c>
       <c r="C194" t="n">
-        <v>0.6269499063491821</v>
+        <v>-1.78052020072937</v>
       </c>
       <c r="D194" t="n">
-        <v>-2.110110998153687</v>
+        <v>-1.210131883621216</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.089810729026794</v>
+        <v>1.851298451423645</v>
       </c>
       <c r="C195" t="n">
-        <v>0.6460337042808533</v>
+        <v>-1.725032687187195</v>
       </c>
       <c r="D195" t="n">
-        <v>-2.15277886390686</v>
+        <v>-1.174282550811768</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.086317896842957</v>
+        <v>1.836629271507263</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6413238048553467</v>
+        <v>-1.703525304794312</v>
       </c>
       <c r="D196" t="n">
-        <v>-2.143954515457153</v>
+        <v>-1.154886364936829</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.089866876602173</v>
+        <v>1.81511652469635</v>
       </c>
       <c r="C197" t="n">
-        <v>0.645449161529541</v>
+        <v>-1.706571698188782</v>
       </c>
       <c r="D197" t="n">
-        <v>-2.151353120803833</v>
+        <v>-1.165014505386353</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.08374035358429</v>
+        <v>1.900037050247192</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6431138515472412</v>
+        <v>-1.770519852638245</v>
       </c>
       <c r="D198" t="n">
-        <v>-2.143516778945923</v>
+        <v>-1.215291261672974</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.087979793548584</v>
+        <v>1.807576060295105</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6464552879333496</v>
+        <v>-1.745409250259399</v>
       </c>
       <c r="D199" t="n">
-        <v>-2.150801181793213</v>
+        <v>-1.19736123085022</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.091349482536316</v>
+        <v>1.782398581504822</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6469790935516357</v>
+        <v>-1.777963042259216</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.153840303421021</v>
+        <v>-1.213626027107239</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.086830973625183</v>
+        <v>1.781984925270081</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6452473998069763</v>
+        <v>-1.767225503921509</v>
       </c>
       <c r="D201" t="n">
-        <v>-2.146667242050171</v>
+        <v>-1.206124782562256</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.078039050102234</v>
+        <v>1.867440819740295</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6372091770172119</v>
+        <v>-1.805491924285889</v>
       </c>
       <c r="D202" t="n">
-        <v>-2.134679317474365</v>
+        <v>-1.253088712692261</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.088692545890808</v>
+        <v>1.77870237827301</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6464782357215881</v>
+        <v>-1.725992798805237</v>
       </c>
       <c r="D203" t="n">
-        <v>-2.148083686828613</v>
+        <v>-1.182968378067017</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.0860915184021</v>
+        <v>1.854321122169495</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6472047567367554</v>
+        <v>-1.763081789016724</v>
       </c>
       <c r="D204" t="n">
-        <v>-2.145500659942627</v>
+        <v>-1.217740654945374</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.091568350791931</v>
+        <v>1.87331759929657</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6498394012451172</v>
+        <v>-1.775545239448547</v>
       </c>
       <c r="D205" t="n">
-        <v>-2.156455039978027</v>
+        <v>-1.232926368713379</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.083187222480774</v>
+        <v>1.895638823509216</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6406612992286682</v>
+        <v>-1.824558734893799</v>
       </c>
       <c r="D206" t="n">
-        <v>-2.142131090164185</v>
+        <v>-1.281991362571716</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.102675557136536</v>
+        <v>1.946614980697632</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6477974653244019</v>
+        <v>-1.851175785064697</v>
       </c>
       <c r="D207" t="n">
-        <v>-2.18030047416687</v>
+        <v>-1.318316578865051</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.102562785148621</v>
+        <v>2.075230836868286</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6363043785095215</v>
+        <v>-1.913368225097656</v>
       </c>
       <c r="D208" t="n">
-        <v>-2.182175874710083</v>
+        <v>-1.365653991699219</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.114863991737366</v>
+        <v>2.050185918807983</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6428310871124268</v>
+        <v>-1.867975950241089</v>
       </c>
       <c r="D209" t="n">
-        <v>-2.199906587600708</v>
+        <v>-1.319284439086914</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.150016307830811</v>
+        <v>1.90393340587616</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6747928857803345</v>
+        <v>-1.735846519470215</v>
       </c>
       <c r="D210" t="n">
-        <v>-2.268091440200806</v>
+        <v>-1.246829509735107</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.160804986953735</v>
+        <v>1.925119161605835</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6770322322845459</v>
+        <v>-1.728550434112549</v>
       </c>
       <c r="D211" t="n">
-        <v>-2.287489652633667</v>
+        <v>-1.243917226791382</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.147541642189026</v>
+        <v>1.982804179191589</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6656177043914795</v>
+        <v>-1.790528655052185</v>
       </c>
       <c r="D212" t="n">
-        <v>-2.261341333389282</v>
+        <v>-1.282128810882568</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.156521797180176</v>
+        <v>1.935109257698059</v>
       </c>
       <c r="C213" t="n">
-        <v>0.673676609992981</v>
+        <v>-1.750901699066162</v>
       </c>
       <c r="D213" t="n">
-        <v>-2.280704021453857</v>
+        <v>-1.262402415275574</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.139074802398682</v>
+        <v>2.003644704818726</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6574936509132385</v>
+        <v>-1.84169590473175</v>
       </c>
       <c r="D214" t="n">
-        <v>-2.251595497131348</v>
+        <v>-1.341088533401489</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.101626396179199</v>
+        <v>2.074429035186768</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6374435424804688</v>
+        <v>-1.919417500495911</v>
       </c>
       <c r="D215" t="n">
-        <v>-2.182593107223511</v>
+        <v>-1.377881646156311</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-1.100818276405334</v>
+        <v>2.048221349716187</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6395213603973389</v>
+        <v>-1.906015276908875</v>
       </c>
       <c r="D216" t="n">
-        <v>-2.180017709732056</v>
+        <v>-1.363907217979431</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.107741951942444</v>
+        <v>1.978774070739746</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6490732431411743</v>
+        <v>-1.856100082397461</v>
       </c>
       <c r="D217" t="n">
-        <v>-2.190026760101318</v>
+        <v>-1.31951379776001</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.12132203578949</v>
+        <v>1.969271540641785</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6551923155784607</v>
+        <v>-1.850088357925415</v>
       </c>
       <c r="D218" t="n">
-        <v>-2.218859434127808</v>
+        <v>-1.339096307754517</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-1.131566047668457</v>
+        <v>2.020745515823364</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6533133983612061</v>
+        <v>-1.86359977722168</v>
       </c>
       <c r="D219" t="n">
-        <v>-2.238976955413818</v>
+        <v>-1.358732938766479</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.129955053329468</v>
+        <v>1.904160499572754</v>
       </c>
       <c r="C220" t="n">
-        <v>0.664969801902771</v>
+        <v>-1.790855526924133</v>
       </c>
       <c r="D220" t="n">
-        <v>-2.232771873474121</v>
+        <v>-1.294274091720581</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.117620587348938</v>
+        <v>1.953405261039734</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6521267890930176</v>
+        <v>-1.847248792648315</v>
       </c>
       <c r="D221" t="n">
-        <v>-2.214557886123657</v>
+        <v>-1.356286287307739</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.127606630325317</v>
+        <v>1.933304905891418</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6597263216972351</v>
+        <v>-1.823564648628235</v>
       </c>
       <c r="D222" t="n">
-        <v>-2.233420848846436</v>
+        <v>-1.342981576919556</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.117446541786194</v>
+        <v>1.991616606712341</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6488461494445801</v>
+        <v>-1.873784065246582</v>
       </c>
       <c r="D223" t="n">
-        <v>-2.21634316444397</v>
+        <v>-1.378003358840942</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.111180901527405</v>
+        <v>2.135063409805298</v>
       </c>
       <c r="C224" t="n">
-        <v>0.624498724937439</v>
+        <v>-1.905465126037598</v>
       </c>
       <c r="D224" t="n">
-        <v>-2.197238445281982</v>
+        <v>-1.509200572967529</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-1.113554716110229</v>
+        <v>2.169703245162964</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6207608580589294</v>
+        <v>-1.908847093582153</v>
       </c>
       <c r="D225" t="n">
-        <v>-2.200007200241089</v>
+        <v>-1.535051703453064</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.179495215415955</v>
+        <v>2.012031316757202</v>
       </c>
       <c r="C226" t="n">
-        <v>0.6703599691390991</v>
+        <v>-1.755535125732422</v>
       </c>
       <c r="D226" t="n">
-        <v>-2.323755979537964</v>
+        <v>-1.349717140197754</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.179491400718689</v>
+        <v>1.98510730266571</v>
       </c>
       <c r="C227" t="n">
-        <v>0.6732071042060852</v>
+        <v>-1.772576689720154</v>
       </c>
       <c r="D227" t="n">
-        <v>-2.326990842819214</v>
+        <v>-1.360575675964355</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.202715516090393</v>
+        <v>1.925070405006409</v>
       </c>
       <c r="C228" t="n">
-        <v>0.690926194190979</v>
+        <v>-1.729321002960205</v>
       </c>
       <c r="D228" t="n">
-        <v>-2.378456592559814</v>
+        <v>-1.335880756378174</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.222180247306824</v>
+        <v>1.837900996208191</v>
       </c>
       <c r="C229" t="n">
-        <v>0.7094517946243286</v>
+        <v>-1.667532682418823</v>
       </c>
       <c r="D229" t="n">
-        <v>-2.422876834869385</v>
+        <v>-1.272692918777466</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.218165755271912</v>
+        <v>1.936307430267334</v>
       </c>
       <c r="C230" t="n">
-        <v>0.6930020451545715</v>
+        <v>-1.70801305770874</v>
       </c>
       <c r="D230" t="n">
-        <v>-2.402295589447021</v>
+        <v>-1.325785160064697</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.243500709533691</v>
+        <v>1.936086058616638</v>
       </c>
       <c r="C231" t="n">
-        <v>0.6995951533317566</v>
+        <v>-1.678678035736084</v>
       </c>
       <c r="D231" t="n">
-        <v>-2.438696384429932</v>
+        <v>-1.309378862380981</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.238891005516052</v>
+        <v>1.833310484886169</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7159374356269836</v>
+        <v>-1.646815896034241</v>
       </c>
       <c r="D232" t="n">
-        <v>-2.450104475021362</v>
+        <v>-1.28339684009552</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.228635430335999</v>
+        <v>1.862529158592224</v>
       </c>
       <c r="C233" t="n">
-        <v>0.7073602080345154</v>
+        <v>-1.675300002098083</v>
       </c>
       <c r="D233" t="n">
-        <v>-2.424926519393921</v>
+        <v>-1.300248980522156</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.221260190010071</v>
+        <v>1.855167746543884</v>
       </c>
       <c r="C234" t="n">
-        <v>0.7066718339920044</v>
+        <v>-1.679308891296387</v>
       </c>
       <c r="D234" t="n">
-        <v>-2.415343046188354</v>
+        <v>-1.301904201507568</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.235956430435181</v>
+        <v>1.862063050270081</v>
       </c>
       <c r="C235" t="n">
-        <v>0.710209846496582</v>
+        <v>-1.666912794113159</v>
       </c>
       <c r="D235" t="n">
-        <v>-2.436428546905518</v>
+        <v>-1.293052196502686</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.277027130126953</v>
+        <v>1.84749436378479</v>
       </c>
       <c r="C236" t="n">
-        <v>0.7304376363754272</v>
+        <v>-1.640495538711548</v>
       </c>
       <c r="D236" t="n">
-        <v>-2.509999513626099</v>
+        <v>-1.276862263679504</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.290783047676086</v>
+        <v>1.802828192710876</v>
       </c>
       <c r="C237" t="n">
-        <v>0.7402485609054565</v>
+        <v>-1.595853447914124</v>
       </c>
       <c r="D237" t="n">
-        <v>-2.539232969284058</v>
+        <v>-1.254154562950134</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-1.311468005180359</v>
+        <v>1.789746880531311</v>
       </c>
       <c r="C238" t="n">
-        <v>0.7500103712081909</v>
+        <v>-1.571562051773071</v>
       </c>
       <c r="D238" t="n">
-        <v>-2.576677799224854</v>
+        <v>-1.24036431312561</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.25237250328064</v>
+        <v>1.813794493675232</v>
       </c>
       <c r="C239" t="n">
-        <v>0.7252029180526733</v>
+        <v>-1.641887068748474</v>
       </c>
       <c r="D239" t="n">
-        <v>-2.473233699798584</v>
+        <v>-1.277579784393311</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.239408850669861</v>
+        <v>1.750592827796936</v>
       </c>
       <c r="C240" t="n">
-        <v>0.7254307270050049</v>
+        <v>-1.633836984634399</v>
       </c>
       <c r="D240" t="n">
-        <v>-2.455739736557007</v>
+        <v>-1.278776407241821</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-1.264922022819519</v>
+        <v>1.638566255569458</v>
       </c>
       <c r="C241" t="n">
-        <v>0.7542924880981445</v>
+        <v>-1.571672916412354</v>
       </c>
       <c r="D241" t="n">
-        <v>-2.522693395614624</v>
+        <v>-1.241266489028931</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-1.299261927604675</v>
+        <v>1.718231081962585</v>
       </c>
       <c r="C242" t="n">
-        <v>0.754580020904541</v>
+        <v>-1.529851317405701</v>
       </c>
       <c r="D242" t="n">
-        <v>-2.568268060684204</v>
+        <v>-1.218133211135864</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-1.318676829338074</v>
+        <v>1.763918280601501</v>
       </c>
       <c r="C243" t="n">
-        <v>0.7567919492721558</v>
+        <v>-1.550677061080933</v>
       </c>
       <c r="D243" t="n">
-        <v>-2.594062566757202</v>
+        <v>-1.230287790298462</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-1.359572291374207</v>
+        <v>1.599104881286621</v>
       </c>
       <c r="C244" t="n">
-        <v>0.7993772625923157</v>
+        <v>-1.406446099281311</v>
       </c>
       <c r="D244" t="n">
-        <v>-2.697100877761841</v>
+        <v>-1.14213240146637</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.381817579269409</v>
+        <v>1.629430174827576</v>
       </c>
       <c r="C245" t="n">
-        <v>0.8034687042236328</v>
+        <v>-1.403217911720276</v>
       </c>
       <c r="D245" t="n">
-        <v>-2.722894191741943</v>
+        <v>-1.12319278717041</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.37156355381012</v>
+        <v>1.515523552894592</v>
       </c>
       <c r="C246" t="n">
-        <v>0.8105590343475342</v>
+        <v>-1.346450448036194</v>
       </c>
       <c r="D246" t="n">
-        <v>-2.725856781005859</v>
+        <v>-1.062719583511353</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-1.390828132629395</v>
+        <v>1.555484652519226</v>
       </c>
       <c r="C247" t="n">
-        <v>0.8161090016365051</v>
+        <v>-1.351718544960022</v>
       </c>
       <c r="D247" t="n">
-        <v>-2.750164747238159</v>
+        <v>-1.05071759223938</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.366475820541382</v>
+        <v>1.6413654088974</v>
       </c>
       <c r="C248" t="n">
-        <v>0.7953574061393738</v>
+        <v>-1.406456589698792</v>
       </c>
       <c r="D248" t="n">
-        <v>-2.690324068069458</v>
+        <v>-1.085957527160645</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-1.39093291759491</v>
+        <v>1.573116183280945</v>
       </c>
       <c r="C249" t="n">
-        <v>0.8146833181381226</v>
+        <v>-1.360353231430054</v>
       </c>
       <c r="D249" t="n">
-        <v>-2.747663021087646</v>
+        <v>-1.044271469116211</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.309317350387573</v>
+        <v>1.701798558235168</v>
       </c>
       <c r="C250" t="n">
-        <v>0.7529783248901367</v>
+        <v>-1.48613715171814</v>
       </c>
       <c r="D250" t="n">
-        <v>-2.568372011184692</v>
+        <v>-1.142011642456055</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.360541105270386</v>
+        <v>1.634551167488098</v>
       </c>
       <c r="C251" t="n">
-        <v>0.7922776937484741</v>
+        <v>-1.397706151008606</v>
       </c>
       <c r="D251" t="n">
-        <v>-2.682146787643433</v>
+        <v>-1.057173252105713</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.367211818695068</v>
+        <v>1.499005913734436</v>
       </c>
       <c r="C252" t="n">
-        <v>0.8062251806259155</v>
+        <v>-1.330999135971069</v>
       </c>
       <c r="D252" t="n">
-        <v>-2.715918302536011</v>
+        <v>-1.006115436553955</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-1.368328809738159</v>
+        <v>1.40142834186554</v>
       </c>
       <c r="C253" t="n">
-        <v>0.8298498392105103</v>
+        <v>-1.325524568557739</v>
       </c>
       <c r="D253" t="n">
-        <v>-2.751763582229614</v>
+        <v>-1.068705439567566</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.363851189613342</v>
+        <v>1.472460627555847</v>
       </c>
       <c r="C254" t="n">
-        <v>0.8086421489715576</v>
+        <v>-1.334377408027649</v>
       </c>
       <c r="D254" t="n">
-        <v>-2.718725204467773</v>
+        <v>-1.041575193405151</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.462450623512268</v>
+        <v>1.668702006340027</v>
       </c>
       <c r="C255" t="n">
-        <v>0.8594729900360107</v>
+        <v>-1.439825296401978</v>
       </c>
       <c r="D255" t="n">
-        <v>-2.898261308670044</v>
+        <v>-1.235997438430786</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.53682553768158</v>
+        <v>1.686243176460266</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9058932065963745</v>
+        <v>-1.433207631111145</v>
       </c>
       <c r="D256" t="n">
-        <v>-3.051375150680542</v>
+        <v>-1.288564324378967</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.530861973762512</v>
+        <v>1.702437520027161</v>
       </c>
       <c r="C257" t="n">
-        <v>0.8987342119216919</v>
+        <v>-1.452573895454407</v>
       </c>
       <c r="D257" t="n">
-        <v>-3.035117387771606</v>
+        <v>-1.300807952880859</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-1.527955651283264</v>
+        <v>1.632580876350403</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9118027687072754</v>
+        <v>-1.403880834579468</v>
       </c>
       <c r="D258" t="n">
-        <v>-3.045575380325317</v>
+        <v>-1.270352125167847</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-1.605746507644653</v>
+        <v>1.715130925178528</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9418730139732361</v>
+        <v>-1.380354642868042</v>
       </c>
       <c r="D259" t="n">
-        <v>-3.177138328552246</v>
+        <v>-1.272422552108765</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-1.567790985107422</v>
+        <v>1.797122836112976</v>
       </c>
       <c r="C260" t="n">
-        <v>0.9064332246780396</v>
+        <v>-1.480856537818909</v>
       </c>
       <c r="D260" t="n">
-        <v>-3.088850259780884</v>
+        <v>-1.342126965522766</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-1.603984713554382</v>
+        <v>1.73090136051178</v>
       </c>
       <c r="C261" t="n">
-        <v>0.9379898309707642</v>
+        <v>-1.390473961830139</v>
       </c>
       <c r="D261" t="n">
-        <v>-3.170228242874146</v>
+        <v>-1.276906967163086</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.633313536643982</v>
+        <v>1.889976620674133</v>
       </c>
       <c r="C262" t="n">
-        <v>0.924095630645752</v>
+        <v>-1.431881189346313</v>
       </c>
       <c r="D262" t="n">
-        <v>-3.192874670028687</v>
+        <v>-1.340661525726318</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-1.628159165382385</v>
+        <v>1.735456109046936</v>
       </c>
       <c r="C263" t="n">
-        <v>0.9551835060119629</v>
+        <v>-1.335972785949707</v>
       </c>
       <c r="D263" t="n">
-        <v>-3.220194578170776</v>
+        <v>-1.321276068687439</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-1.612990975379944</v>
+        <v>1.70893394947052</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9546915888786316</v>
+        <v>-1.349766731262207</v>
       </c>
       <c r="D264" t="n">
-        <v>-3.203251123428345</v>
+        <v>-1.340156316757202</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.574556112289429</v>
+        <v>1.653127789497375</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9425909519195557</v>
+        <v>-1.35626232624054</v>
       </c>
       <c r="D265" t="n">
-        <v>-3.140164613723755</v>
+        <v>-1.367417097091675</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.640214323997498</v>
+        <v>1.716778635978699</v>
       </c>
       <c r="C266" t="n">
-        <v>0.9618167877197266</v>
+        <v>-1.276370525360107</v>
       </c>
       <c r="D266" t="n">
-        <v>-3.236998796463013</v>
+        <v>-1.289468050003052</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-1.706928014755249</v>
+        <v>1.791847467422485</v>
       </c>
       <c r="C267" t="n">
-        <v>0.9797601103782654</v>
+        <v>-1.226212859153748</v>
       </c>
       <c r="D267" t="n">
-        <v>-3.339169025421143</v>
+        <v>-1.254298448562622</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.642723321914673</v>
+        <v>1.71510910987854</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9555678367614746</v>
+        <v>-1.23947811126709</v>
       </c>
       <c r="D268" t="n">
-        <v>-3.231815099716187</v>
+        <v>-1.280407428741455</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.624525427818298</v>
+        <v>1.790754199028015</v>
       </c>
       <c r="C269" t="n">
-        <v>0.932819664478302</v>
+        <v>-1.263957023620605</v>
       </c>
       <c r="D269" t="n">
-        <v>-3.183377504348755</v>
+        <v>-1.297534704208374</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.653857350349426</v>
+        <v>1.777246832847595</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9405180215835571</v>
+        <v>-1.212646484375</v>
       </c>
       <c r="D270" t="n">
-        <v>-3.229142904281616</v>
+        <v>-1.274301171302795</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-1.673320651054382</v>
+        <v>1.890084266662598</v>
       </c>
       <c r="C271" t="n">
-        <v>0.9328165054321289</v>
+        <v>-1.249277353286743</v>
       </c>
       <c r="D271" t="n">
-        <v>-3.250779867172241</v>
+        <v>-1.312114715576172</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-1.66819965839386</v>
+        <v>1.939892292022705</v>
       </c>
       <c r="C272" t="n">
-        <v>0.9263811111450195</v>
+        <v>-1.286076545715332</v>
       </c>
       <c r="D272" t="n">
-        <v>-3.238856792449951</v>
+        <v>-1.344877243041992</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.690057396888733</v>
+        <v>1.951794266700745</v>
       </c>
       <c r="C273" t="n">
-        <v>0.9299006462097168</v>
+        <v>-1.265007972717285</v>
       </c>
       <c r="D273" t="n">
-        <v>-3.27110743522644</v>
+        <v>-1.300392985343933</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-1.729768991470337</v>
+        <v>1.940729975700378</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9518861770629883</v>
+        <v>-1.224465847015381</v>
       </c>
       <c r="D274" t="n">
-        <v>-3.343606233596802</v>
+        <v>-1.219016313552856</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.915605068206787</v>
+        <v>1.733323931694031</v>
       </c>
       <c r="C275" t="n">
-        <v>1.156304478645325</v>
+        <v>-1.05672025680542</v>
       </c>
       <c r="D275" t="n">
-        <v>-3.769819974899292</v>
+        <v>-0.8988935947418213</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.887803554534912</v>
+        <v>1.764039516448975</v>
       </c>
       <c r="C276" t="n">
-        <v>1.134639143943787</v>
+        <v>-1.024368166923523</v>
       </c>
       <c r="D276" t="n">
-        <v>-3.717097043991089</v>
+        <v>-0.8504800796508789</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.852644205093384</v>
+        <v>1.832700848579407</v>
       </c>
       <c r="C277" t="n">
-        <v>1.115009427070618</v>
+        <v>-0.9610252380371094</v>
       </c>
       <c r="D277" t="n">
-        <v>-3.657727003097534</v>
+        <v>-0.8435407876968384</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.901984333992004</v>
+        <v>1.74640154838562</v>
       </c>
       <c r="C278" t="n">
-        <v>1.133665323257446</v>
+        <v>-0.9185872673988342</v>
       </c>
       <c r="D278" t="n">
-        <v>-3.737476110458374</v>
+        <v>-0.7920066714286804</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-1.885127425193787</v>
+        <v>1.739874958992004</v>
       </c>
       <c r="C279" t="n">
-        <v>1.126619815826416</v>
+        <v>-1.087768077850342</v>
       </c>
       <c r="D279" t="n">
-        <v>-3.706481695175171</v>
+        <v>-0.8360471725463867</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.888017535209656</v>
+        <v>1.784186482429504</v>
       </c>
       <c r="C280" t="n">
-        <v>1.124114632606506</v>
+        <v>-1.012054085731506</v>
       </c>
       <c r="D280" t="n">
-        <v>-3.706202030181885</v>
+        <v>-0.8261246681213379</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-1.898106932640076</v>
+        <v>1.661367535591125</v>
       </c>
       <c r="C281" t="n">
-        <v>1.135625123977661</v>
+        <v>-1.023997902870178</v>
       </c>
       <c r="D281" t="n">
-        <v>-3.734484434127808</v>
+        <v>-0.7947129011154175</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.938684344291687</v>
+        <v>1.497981071472168</v>
       </c>
       <c r="C282" t="n">
-        <v>1.171123743057251</v>
+        <v>-1.044565320014954</v>
       </c>
       <c r="D282" t="n">
-        <v>-3.82239842414856</v>
+        <v>-0.7986645102500916</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-2.008534669876099</v>
+        <v>1.403872847557068</v>
       </c>
       <c r="C283" t="n">
-        <v>1.213976860046387</v>
+        <v>-0.9487251043319702</v>
       </c>
       <c r="D283" t="n">
-        <v>-3.952365636825562</v>
+        <v>-0.7166702747344971</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-1.95274555683136</v>
+        <v>1.534993290901184</v>
       </c>
       <c r="C284" t="n">
-        <v>1.170951366424561</v>
+        <v>-1.024929642677307</v>
       </c>
       <c r="D284" t="n">
-        <v>-3.836119174957275</v>
+        <v>-0.7813736200332642</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.940653324127197</v>
+        <v>1.576891303062439</v>
       </c>
       <c r="C285" t="n">
-        <v>1.160879492759705</v>
+        <v>-1.056071400642395</v>
       </c>
       <c r="D285" t="n">
-        <v>-3.811579942703247</v>
+        <v>-0.8306553363800049</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-1.969568133354187</v>
+        <v>1.560506701469421</v>
       </c>
       <c r="C286" t="n">
-        <v>1.173334240913391</v>
+        <v>-1.040257930755615</v>
       </c>
       <c r="D286" t="n">
-        <v>-3.863075971603394</v>
+        <v>-0.8424598574638367</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-1.999013304710388</v>
+        <v>1.499343037605286</v>
       </c>
       <c r="C287" t="n">
-        <v>1.200256705284119</v>
+        <v>-1.023941397666931</v>
       </c>
       <c r="D287" t="n">
-        <v>-3.928711652755737</v>
+        <v>-0.8370704054832458</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-2.00505518913269</v>
+        <v>1.4561687707901</v>
       </c>
       <c r="C288" t="n">
-        <v>1.210855484008789</v>
+        <v>-1.0179363489151</v>
       </c>
       <c r="D288" t="n">
-        <v>-3.94848895072937</v>
+        <v>-0.8314136266708374</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.960117816925049</v>
+        <v>1.431846141815186</v>
       </c>
       <c r="C289" t="n">
-        <v>1.192430377006531</v>
+        <v>-1.015835404396057</v>
       </c>
       <c r="D289" t="n">
-        <v>-3.870990037918091</v>
+        <v>-0.8602784276008606</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.965688824653625</v>
+        <v>1.578223943710327</v>
       </c>
       <c r="C290" t="n">
-        <v>1.186578750610352</v>
+        <v>-1.078017115592957</v>
       </c>
       <c r="D290" t="n">
-        <v>-3.869927883148193</v>
+        <v>-0.8984067440032959</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-1.999278664588928</v>
+        <v>1.60039234161377</v>
       </c>
       <c r="C291" t="n">
-        <v>1.181366920471191</v>
+        <v>-1.028433442115784</v>
       </c>
       <c r="D291" t="n">
-        <v>-3.913286924362183</v>
+        <v>-0.9074651002883911</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-2.051033735275269</v>
+        <v>1.475253701210022</v>
       </c>
       <c r="C292" t="n">
-        <v>1.23256504535675</v>
+        <v>-1.003119230270386</v>
       </c>
       <c r="D292" t="n">
-        <v>-4.031065940856934</v>
+        <v>-0.8815528750419617</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-2.085145711898804</v>
+        <v>1.491513729095459</v>
       </c>
       <c r="C293" t="n">
-        <v>1.246474146842957</v>
+        <v>-0.988602876663208</v>
       </c>
       <c r="D293" t="n">
-        <v>-4.087838172912598</v>
+        <v>-0.8933157920837402</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.987567067146301</v>
+        <v>1.467420935630798</v>
       </c>
       <c r="C294" t="n">
-        <v>1.203579187393188</v>
+        <v>-1.031440138816833</v>
       </c>
       <c r="D294" t="n">
-        <v>-3.918062448501587</v>
+        <v>-0.8357621431350708</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.999758362770081</v>
+        <v>1.445732355117798</v>
       </c>
       <c r="C295" t="n">
-        <v>1.208792209625244</v>
+        <v>-1.008472442626953</v>
       </c>
       <c r="D295" t="n">
-        <v>-3.938976287841797</v>
+        <v>-0.8106249570846558</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-1.997037768363953</v>
+        <v>1.53876268863678</v>
       </c>
       <c r="C296" t="n">
-        <v>1.195470213890076</v>
+        <v>-1.034493088722229</v>
       </c>
       <c r="D296" t="n">
-        <v>-3.921113014221191</v>
+        <v>-0.8612557053565979</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.966569662094116</v>
+        <v>1.570054054260254</v>
       </c>
       <c r="C297" t="n">
-        <v>1.179624795913696</v>
+        <v>-1.058341503143311</v>
       </c>
       <c r="D297" t="n">
-        <v>-3.863933801651001</v>
+        <v>-0.8604146242141724</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.976461410522461</v>
+        <v>1.652562618255615</v>
       </c>
       <c r="C298" t="n">
-        <v>1.13560962677002</v>
+        <v>-0.8473477363586426</v>
       </c>
       <c r="D298" t="n">
-        <v>-3.849253416061401</v>
+        <v>-0.83492112159729</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-2.061555624008179</v>
+        <v>1.575689792633057</v>
       </c>
       <c r="C299" t="n">
-        <v>1.230642080307007</v>
+        <v>-1.022305011749268</v>
       </c>
       <c r="D299" t="n">
-        <v>-4.041561126708984</v>
+        <v>-0.9648025035858154</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-2.064673185348511</v>
+        <v>1.483987331390381</v>
       </c>
       <c r="C300" t="n">
-        <v>1.246232867240906</v>
+        <v>-0.9772763252258301</v>
       </c>
       <c r="D300" t="n">
-        <v>-4.059960842132568</v>
+        <v>-0.9091498255729675</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-1.751240134239197</v>
+        <v>1.615272164344788</v>
       </c>
       <c r="C301" t="n">
-        <v>1.063745260238647</v>
+        <v>-1.140351176261902</v>
       </c>
       <c r="D301" t="n">
-        <v>-3.484061479568481</v>
+        <v>-1.115285634994507</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-2.129063606262207</v>
+        <v>1.517030358314514</v>
       </c>
       <c r="C302" t="n">
-        <v>1.258202910423279</v>
+        <v>-0.934654176235199</v>
       </c>
       <c r="D302" t="n">
-        <v>-4.157490253448486</v>
+        <v>-0.9585587978363037</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-2.116670608520508</v>
+        <v>1.658452868461609</v>
       </c>
       <c r="C303" t="n">
-        <v>1.252502202987671</v>
+        <v>-1.015498280525208</v>
       </c>
       <c r="D303" t="n">
-        <v>-4.135514259338379</v>
+        <v>-1.008155941963196</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-2.1225745677948</v>
+        <v>1.569632411003113</v>
       </c>
       <c r="C304" t="n">
-        <v>1.253841042518616</v>
+        <v>-0.971606969833374</v>
       </c>
       <c r="D304" t="n">
-        <v>-4.142897605895996</v>
+        <v>-1.007873773574829</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-2.06562066078186</v>
+        <v>1.688991904258728</v>
       </c>
       <c r="C305" t="n">
-        <v>1.227356910705566</v>
+        <v>-1.048511862754822</v>
       </c>
       <c r="D305" t="n">
-        <v>-4.040214061737061</v>
+        <v>-1.069390416145325</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-2.082791090011597</v>
+        <v>1.605269551277161</v>
       </c>
       <c r="C306" t="n">
-        <v>1.225885391235352</v>
+        <v>-1.001369595527649</v>
       </c>
       <c r="D306" t="n">
-        <v>-4.062491416931152</v>
+        <v>-1.037643313407898</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-2.093296766281128</v>
+        <v>1.657591938972473</v>
       </c>
       <c r="C307" t="n">
-        <v>1.244011402130127</v>
+        <v>-1.031005382537842</v>
       </c>
       <c r="D307" t="n">
-        <v>-4.096400737762451</v>
+        <v>-1.045376777648926</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-2.058333396911621</v>
+        <v>1.767859697341919</v>
       </c>
       <c r="C308" t="n">
-        <v>1.21004593372345</v>
+        <v>-1.090052723884583</v>
       </c>
       <c r="D308" t="n">
-        <v>-4.020288944244385</v>
+        <v>-1.095577001571655</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-2.069382905960083</v>
+        <v>1.723478436470032</v>
       </c>
       <c r="C309" t="n">
-        <v>1.227910876274109</v>
+        <v>-1.076647281646729</v>
       </c>
       <c r="D309" t="n">
-        <v>-4.049282073974609</v>
+        <v>-1.065611600875854</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-2.105971336364746</v>
+        <v>1.590643525123596</v>
       </c>
       <c r="C310" t="n">
-        <v>1.237794041633606</v>
+        <v>-0.9771145582199097</v>
       </c>
       <c r="D310" t="n">
-        <v>-4.107311248779297</v>
+        <v>-0.9454759359359741</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-2.154573202133179</v>
+        <v>1.474402546882629</v>
       </c>
       <c r="C311" t="n">
-        <v>1.277448892593384</v>
+        <v>-0.9321930408477783</v>
       </c>
       <c r="D311" t="n">
-        <v>-4.209401607513428</v>
+        <v>-0.9295618534088135</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-2.150990724563599</v>
+        <v>1.46919572353363</v>
       </c>
       <c r="C312" t="n">
-        <v>1.262759208679199</v>
+        <v>-0.9026448130607605</v>
       </c>
       <c r="D312" t="n">
-        <v>-4.191189289093018</v>
+        <v>-0.9472180008888245</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-2.09036660194397</v>
+        <v>1.405765652656555</v>
       </c>
       <c r="C313" t="n">
-        <v>1.259004592895508</v>
+        <v>-0.8905921578407288</v>
       </c>
       <c r="D313" t="n">
-        <v>-4.112812042236328</v>
+        <v>-0.9305951595306396</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-2.16774320602417</v>
+        <v>1.402022480964661</v>
       </c>
       <c r="C314" t="n">
-        <v>1.26878547668457</v>
+        <v>-0.8584166765213013</v>
       </c>
       <c r="D314" t="n">
-        <v>-4.221298217773438</v>
+        <v>-0.905266284942627</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-2.218263626098633</v>
+        <v>1.337477922439575</v>
       </c>
       <c r="C315" t="n">
-        <v>1.302020668983459</v>
+        <v>-0.8103985786437988</v>
       </c>
       <c r="D315" t="n">
-        <v>-4.318287372589111</v>
+        <v>-0.8595184087753296</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-2.196440458297729</v>
+        <v>1.359862923622131</v>
       </c>
       <c r="C316" t="n">
-        <v>1.286998152732849</v>
+        <v>-0.829134464263916</v>
       </c>
       <c r="D316" t="n">
-        <v>-4.276618480682373</v>
+        <v>-0.8760999441146851</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-2.178113222122192</v>
+        <v>1.427593350410461</v>
       </c>
       <c r="C317" t="n">
-        <v>1.287899971008301</v>
+        <v>-0.8917834758758545</v>
       </c>
       <c r="D317" t="n">
-        <v>-4.250518321990967</v>
+        <v>-0.9051005244255066</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-2.113830804824829</v>
+        <v>1.452674984931946</v>
       </c>
       <c r="C318" t="n">
-        <v>1.263477802276611</v>
+        <v>-0.9537582397460938</v>
       </c>
       <c r="D318" t="n">
-        <v>-4.142464160919189</v>
+        <v>-0.885278582572937</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-2.09933876991272</v>
+        <v>1.488964200019836</v>
       </c>
       <c r="C319" t="n">
-        <v>1.252731323242188</v>
+        <v>-0.9793094396591187</v>
       </c>
       <c r="D319" t="n">
-        <v>-4.11216402053833</v>
+        <v>-0.886777937412262</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-2.130268335342407</v>
+        <v>1.456733584403992</v>
       </c>
       <c r="C320" t="n">
-        <v>1.26883864402771</v>
+        <v>-0.949853241443634</v>
       </c>
       <c r="D320" t="n">
-        <v>-4.167764186859131</v>
+        <v>-0.8621910810470581</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.16637921333313</v>
+        <v>1.4503333568573</v>
       </c>
       <c r="C321" t="n">
-        <v>1.288120746612549</v>
+        <v>-0.9172572493553162</v>
       </c>
       <c r="D321" t="n">
-        <v>-4.232381343841553</v>
+        <v>-0.8634198307991028</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-2.105491161346436</v>
+        <v>1.567972779273987</v>
       </c>
       <c r="C322" t="n">
-        <v>1.203051090240479</v>
+        <v>-0.9003162384033203</v>
       </c>
       <c r="D322" t="n">
-        <v>-4.080055713653564</v>
+        <v>-0.8872911930084229</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-2.171945095062256</v>
+        <v>1.324806571006775</v>
       </c>
       <c r="C323" t="n">
-        <v>1.303161382675171</v>
+        <v>-0.8691819906234741</v>
       </c>
       <c r="D323" t="n">
-        <v>-4.25828742980957</v>
+        <v>-0.8010801076889038</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-2.312935829162598</v>
+        <v>1.274369359016418</v>
       </c>
       <c r="C324" t="n">
-        <v>1.344649791717529</v>
+        <v>-0.8388553261756897</v>
       </c>
       <c r="D324" t="n">
-        <v>-4.463533878326416</v>
+        <v>-0.7658007144927979</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-2.284500598907471</v>
+        <v>1.189070105552673</v>
       </c>
       <c r="C325" t="n">
-        <v>1.338687181472778</v>
+        <v>-0.7790802717208862</v>
       </c>
       <c r="D325" t="n">
-        <v>-4.426537036895752</v>
+        <v>-0.7886489629745483</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-2.283923387527466</v>
+        <v>1.259780049324036</v>
       </c>
       <c r="C326" t="n">
-        <v>1.340282440185547</v>
+        <v>-0.7719283103942871</v>
       </c>
       <c r="D326" t="n">
-        <v>-4.437661647796631</v>
+        <v>-0.7954627275466919</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-2.213191509246826</v>
+        <v>1.367863297462463</v>
       </c>
       <c r="C327" t="n">
-        <v>1.318917036056519</v>
+        <v>-0.842638373374939</v>
       </c>
       <c r="D327" t="n">
-        <v>-4.321406841278076</v>
+        <v>-0.7947379350662231</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-2.279239416122437</v>
+        <v>1.256304621696472</v>
       </c>
       <c r="C328" t="n">
-        <v>1.35886824131012</v>
+        <v>-0.7718905210494995</v>
       </c>
       <c r="D328" t="n">
-        <v>-4.450357913970947</v>
+        <v>-0.7490354776382446</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-2.20701003074646</v>
+        <v>1.348483204841614</v>
       </c>
       <c r="C329" t="n">
-        <v>1.319051742553711</v>
+        <v>-0.8460036516189575</v>
       </c>
       <c r="D329" t="n">
-        <v>-4.31456470489502</v>
+        <v>-0.7838063836097717</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-2.466408967971802</v>
+        <v>1.22674548625946</v>
       </c>
       <c r="C330" t="n">
-        <v>1.391182899475098</v>
+        <v>-0.7875843048095703</v>
       </c>
       <c r="D330" t="n">
-        <v>-4.690063953399658</v>
+        <v>-0.7198997735977173</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-2.204215049743652</v>
+        <v>1.355484485626221</v>
       </c>
       <c r="C331" t="n">
-        <v>1.317316770553589</v>
+        <v>-0.8516938090324402</v>
       </c>
       <c r="D331" t="n">
-        <v>-4.309057712554932</v>
+        <v>-0.7868953943252563</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-2.22584056854248</v>
+        <v>1.343913435935974</v>
       </c>
       <c r="C332" t="n">
-        <v>1.323382139205933</v>
+        <v>-0.8191156983375549</v>
       </c>
       <c r="D332" t="n">
-        <v>-4.342980861663818</v>
+        <v>-0.793980598449707</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-2.23569130897522</v>
+        <v>1.342827200889587</v>
       </c>
       <c r="C333" t="n">
-        <v>1.328628420829773</v>
+        <v>-0.8131835460662842</v>
       </c>
       <c r="D333" t="n">
-        <v>-4.360908031463623</v>
+        <v>-0.7936261296272278</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-2.217329263687134</v>
+        <v>1.366861701011658</v>
       </c>
       <c r="C334" t="n">
-        <v>1.300882697105408</v>
+        <v>-0.8151923418045044</v>
       </c>
       <c r="D334" t="n">
-        <v>-4.311150550842285</v>
+        <v>-0.7885809540748596</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-2.376726388931274</v>
+        <v>1.235803246498108</v>
       </c>
       <c r="C335" t="n">
-        <v>1.375341534614563</v>
+        <v>-0.7876760363578796</v>
       </c>
       <c r="D335" t="n">
-        <v>-4.576469898223877</v>
+        <v>-0.7497910261154175</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-2.46021580696106</v>
+        <v>1.21470582485199</v>
       </c>
       <c r="C336" t="n">
-        <v>1.397054553031921</v>
+        <v>-0.7715598344802856</v>
       </c>
       <c r="D336" t="n">
-        <v>-4.693534374237061</v>
+        <v>-0.7276760339736938</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-2.402299165725708</v>
+        <v>1.148540854454041</v>
       </c>
       <c r="C337" t="n">
-        <v>1.386256575584412</v>
+        <v>-0.7201546430587769</v>
       </c>
       <c r="D337" t="n">
-        <v>-4.616319179534912</v>
+        <v>-0.750659704208374</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-2.277888774871826</v>
+        <v>1.257373690605164</v>
       </c>
       <c r="C338" t="n">
-        <v>1.35482919216156</v>
+        <v>-0.7651856541633606</v>
       </c>
       <c r="D338" t="n">
-        <v>-4.445139408111572</v>
+        <v>-0.7576348781585693</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-2.286317110061646</v>
+        <v>1.264618754386902</v>
       </c>
       <c r="C339" t="n">
-        <v>1.355420589447021</v>
+        <v>-0.7553567886352539</v>
       </c>
       <c r="D339" t="n">
-        <v>-4.455952167510986</v>
+        <v>-0.7595183849334717</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-2.344108581542969</v>
+        <v>1.232055306434631</v>
       </c>
       <c r="C340" t="n">
-        <v>1.371092557907104</v>
+        <v>-0.7336970567703247</v>
       </c>
       <c r="D340" t="n">
-        <v>-4.541483402252197</v>
+        <v>-0.7499645948410034</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-2.239019393920898</v>
+        <v>1.328828692436218</v>
       </c>
       <c r="C341" t="n">
-        <v>1.330183982849121</v>
+        <v>-0.8044024109840393</v>
       </c>
       <c r="D341" t="n">
-        <v>-4.366952419281006</v>
+        <v>-0.7846654057502747</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-2.294751882553101</v>
+        <v>1.249830484390259</v>
       </c>
       <c r="C342" t="n">
-        <v>1.356613755226135</v>
+        <v>-0.7418209910392761</v>
       </c>
       <c r="D342" t="n">
-        <v>-4.469756126403809</v>
+        <v>-0.7673225402832031</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-2.242727518081665</v>
+        <v>1.330673575401306</v>
       </c>
       <c r="C343" t="n">
-        <v>1.330651521682739</v>
+        <v>-0.8006489276885986</v>
       </c>
       <c r="D343" t="n">
-        <v>-4.372507572174072</v>
+        <v>-0.7923527956008911</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-2.233808755874634</v>
+        <v>1.338199019432068</v>
       </c>
       <c r="C344" t="n">
-        <v>1.327476143836975</v>
+        <v>-0.8111139535903931</v>
       </c>
       <c r="D344" t="n">
-        <v>-4.357387065887451</v>
+        <v>-0.790389358997345</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-2.222989559173584</v>
+        <v>1.363114237785339</v>
       </c>
       <c r="C345" t="n">
-        <v>1.309762954711914</v>
+        <v>-0.8179915547370911</v>
       </c>
       <c r="D345" t="n">
-        <v>-4.326888561248779</v>
+        <v>-0.7896515130996704</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-2.212653398513794</v>
+        <v>1.365348815917969</v>
       </c>
       <c r="C346" t="n">
-        <v>1.294751763343811</v>
+        <v>-0.8085668087005615</v>
       </c>
       <c r="D346" t="n">
-        <v>-4.298265933990479</v>
+        <v>-0.7720966935157776</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-2.567363262176514</v>
+        <v>1.216920256614685</v>
       </c>
       <c r="C347" t="n">
-        <v>1.416440606117249</v>
+        <v>-0.7647642493247986</v>
       </c>
       <c r="D347" t="n">
-        <v>-4.828794479370117</v>
+        <v>-0.6738467216491699</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-2.615757942199707</v>
+        <v>1.24016261100769</v>
       </c>
       <c r="C348" t="n">
-        <v>1.425169587135315</v>
+        <v>-0.7647914886474609</v>
       </c>
       <c r="D348" t="n">
-        <v>-4.888996601104736</v>
+        <v>-0.6163922548294067</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.061963081359863</v>
+        <v>0.9807831645011902</v>
       </c>
       <c r="C349" t="n">
-        <v>1.486425161361694</v>
+        <v>-0.5379984378814697</v>
       </c>
       <c r="D349" t="n">
-        <v>-5.427761077880859</v>
+        <v>-0.4801985621452332</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-3.030898809432983</v>
+        <v>1.031952261924744</v>
       </c>
       <c r="C350" t="n">
-        <v>1.477222919464111</v>
+        <v>-0.5859138965606689</v>
       </c>
       <c r="D350" t="n">
-        <v>-5.389274597167969</v>
+        <v>-0.4665426015853882</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-2.85474705696106</v>
+        <v>1.239365339279175</v>
       </c>
       <c r="C351" t="n">
-        <v>1.491478443145752</v>
+        <v>-0.7701828479766846</v>
       </c>
       <c r="D351" t="n">
-        <v>-5.237895488739014</v>
+        <v>-0.5607882142066956</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-3.086171865463257</v>
+        <v>0.9904738664627075</v>
       </c>
       <c r="C352" t="n">
-        <v>1.492501020431519</v>
+        <v>-0.5339363217353821</v>
       </c>
       <c r="D352" t="n">
-        <v>-5.46599817276001</v>
+        <v>-0.445203959941864</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-2.8112633228302</v>
+        <v>1.18120539188385</v>
       </c>
       <c r="C353" t="n">
-        <v>1.460001707077026</v>
+        <v>-0.7252918481826782</v>
       </c>
       <c r="D353" t="n">
-        <v>-5.14747428894043</v>
+        <v>-0.5686745643615723</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-2.792223930358887</v>
+        <v>1.175347328186035</v>
       </c>
       <c r="C354" t="n">
-        <v>1.4500572681427</v>
+        <v>-0.7248867154121399</v>
       </c>
       <c r="D354" t="n">
-        <v>-5.114289283752441</v>
+        <v>-0.5825679898262024</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-2.738924980163574</v>
+        <v>1.204289317131042</v>
       </c>
       <c r="C355" t="n">
-        <v>1.445492029190063</v>
+        <v>-0.7416018843650818</v>
       </c>
       <c r="D355" t="n">
-        <v>-5.049815654754639</v>
+        <v>-0.5799892544746399</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-2.762423753738403</v>
+        <v>1.248345255851746</v>
       </c>
       <c r="C356" t="n">
-        <v>1.455569267272949</v>
+        <v>-0.7972341775894165</v>
       </c>
       <c r="D356" t="n">
-        <v>-5.089235782623291</v>
+        <v>-0.569341778755188</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-2.77505898475647</v>
+        <v>1.271641731262207</v>
       </c>
       <c r="C357" t="n">
-        <v>1.468177556991577</v>
+        <v>-0.8163219094276428</v>
       </c>
       <c r="D357" t="n">
-        <v>-5.120545864105225</v>
+        <v>-0.5737870335578918</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-3.237323045730591</v>
+        <v>1.245419144630432</v>
       </c>
       <c r="C358" t="n">
-        <v>1.614298105239868</v>
+        <v>-0.7632482051849365</v>
       </c>
       <c r="D358" t="n">
-        <v>-5.819205284118652</v>
+        <v>-0.5010480880737305</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-3.083866357803345</v>
+        <v>1.183293700218201</v>
       </c>
       <c r="C359" t="n">
-        <v>1.541049480438232</v>
+        <v>-0.7352700233459473</v>
       </c>
       <c r="D359" t="n">
-        <v>-5.551668643951416</v>
+        <v>-0.5091562271118164</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-3.137849569320679</v>
+        <v>1.133952379226685</v>
       </c>
       <c r="C360" t="n">
-        <v>1.541452646255493</v>
+        <v>-0.7051487565040588</v>
       </c>
       <c r="D360" t="n">
-        <v>-5.602859497070312</v>
+        <v>-0.4736871719360352</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-3.053771257400513</v>
+        <v>1.016330003738403</v>
       </c>
       <c r="C361" t="n">
-        <v>1.482583999633789</v>
+        <v>-0.5636699795722961</v>
       </c>
       <c r="D361" t="n">
-        <v>-5.420033931732178</v>
+        <v>-0.4346367120742798</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-3.131970167160034</v>
+        <v>1.078234672546387</v>
       </c>
       <c r="C362" t="n">
-        <v>1.527461647987366</v>
+        <v>-0.6104356050491333</v>
       </c>
       <c r="D362" t="n">
-        <v>-5.57643461227417</v>
+        <v>-0.4307391047477722</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-3.173924684524536</v>
+        <v>1.111824154853821</v>
       </c>
       <c r="C363" t="n">
-        <v>1.550468921661377</v>
+        <v>-0.6492388248443604</v>
       </c>
       <c r="D363" t="n">
-        <v>-5.655370235443115</v>
+        <v>-0.4397959113121033</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-3.158521890640259</v>
+        <v>1.027419924736023</v>
       </c>
       <c r="C364" t="n">
-        <v>1.536195397377014</v>
+        <v>-0.5785225033760071</v>
       </c>
       <c r="D364" t="n">
-        <v>-5.607362270355225</v>
+        <v>-0.4164011478424072</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-3.266993284225464</v>
+        <v>1.215206623077393</v>
       </c>
       <c r="C365" t="n">
-        <v>1.613355278968811</v>
+        <v>-0.7554338574409485</v>
       </c>
       <c r="D365" t="n">
-        <v>-5.842795848846436</v>
+        <v>-0.4976317882537842</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-3.252043485641479</v>
+        <v>1.156609296798706</v>
       </c>
       <c r="C366" t="n">
-        <v>1.599748611450195</v>
+        <v>-0.7175106406211853</v>
       </c>
       <c r="D366" t="n">
-        <v>-5.799561977386475</v>
+        <v>-0.4731341600418091</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-3.283625364303589</v>
+        <v>1.215521216392517</v>
       </c>
       <c r="C367" t="n">
-        <v>1.621085643768311</v>
+        <v>-0.7491618990898132</v>
       </c>
       <c r="D367" t="n">
-        <v>-5.87076997756958</v>
+        <v>-0.5006105899810791</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-3.311289310455322</v>
+        <v>1.236810803413391</v>
       </c>
       <c r="C368" t="n">
-        <v>1.637902975082397</v>
+        <v>-0.7642413973808289</v>
       </c>
       <c r="D368" t="n">
-        <v>-5.924735546112061</v>
+        <v>-0.4898216128349304</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-3.251692771911621</v>
+        <v>1.219855666160583</v>
       </c>
       <c r="C369" t="n">
-        <v>1.609005093574524</v>
+        <v>-0.7543013095855713</v>
       </c>
       <c r="D369" t="n">
-        <v>-5.823004245758057</v>
+        <v>-0.5016832947731018</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-3.394364595413208</v>
+        <v>1.254581332206726</v>
       </c>
       <c r="C370" t="n">
-        <v>1.701614379882812</v>
+        <v>-0.6850800514221191</v>
       </c>
       <c r="D370" t="n">
-        <v>-6.109522342681885</v>
+        <v>-0.4962470531463623</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-3.506727457046509</v>
+        <v>1.194280982017517</v>
       </c>
       <c r="C371" t="n">
-        <v>1.723625421524048</v>
+        <v>-0.721173882484436</v>
       </c>
       <c r="D371" t="n">
-        <v>-6.230083465576172</v>
+        <v>-0.4527480602264404</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-3.4522545337677</v>
+        <v>1.116321921348572</v>
       </c>
       <c r="C372" t="n">
-        <v>1.689892888069153</v>
+        <v>-0.6589497923851013</v>
       </c>
       <c r="D372" t="n">
-        <v>-6.11808443069458</v>
+        <v>-0.4212346076965332</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-3.481239557266235</v>
+        <v>1.020449757575989</v>
       </c>
       <c r="C373" t="n">
-        <v>1.695942640304565</v>
+        <v>-0.5693192481994629</v>
       </c>
       <c r="D373" t="n">
-        <v>-6.143192768096924</v>
+        <v>-0.3933092951774597</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-3.808548927307129</v>
+        <v>1.093093991279602</v>
       </c>
       <c r="C374" t="n">
-        <v>1.854507923126221</v>
+        <v>-0.6004188656806946</v>
       </c>
       <c r="D374" t="n">
-        <v>-6.708960056304932</v>
+        <v>-0.3869108557701111</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-3.844639778137207</v>
+        <v>1.200177550315857</v>
       </c>
       <c r="C375" t="n">
-        <v>1.881877899169922</v>
+        <v>-0.6805436611175537</v>
       </c>
       <c r="D375" t="n">
-        <v>-6.803217887878418</v>
+        <v>-0.4295563101768494</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-3.765565156936646</v>
+        <v>1.141976356506348</v>
       </c>
       <c r="C376" t="n">
-        <v>1.839652061462402</v>
+        <v>-0.6452887058258057</v>
       </c>
       <c r="D376" t="n">
-        <v>-6.650711536407471</v>
+        <v>-0.4084517955780029</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-3.715712308883667</v>
+        <v>1.223226070404053</v>
       </c>
       <c r="C377" t="n">
-        <v>1.824923276901245</v>
+        <v>-0.7253684997558594</v>
       </c>
       <c r="D377" t="n">
-        <v>-6.591914653778076</v>
+        <v>-0.4523909091949463</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-3.665791511535645</v>
+        <v>1.07983672618866</v>
       </c>
       <c r="C378" t="n">
-        <v>1.787063002586365</v>
+        <v>-0.5972759127616882</v>
       </c>
       <c r="D378" t="n">
-        <v>-6.4686598777771</v>
+        <v>-0.3864017724990845</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-3.707292556762695</v>
+        <v>1.215723156929016</v>
       </c>
       <c r="C379" t="n">
-        <v>1.820356369018555</v>
+        <v>-0.7194918990135193</v>
       </c>
       <c r="D379" t="n">
-        <v>-6.575491905212402</v>
+        <v>-0.4486962556838989</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-3.886518239974976</v>
+        <v>1.243099689483643</v>
       </c>
       <c r="C380" t="n">
-        <v>1.907960891723633</v>
+        <v>-0.7080920338630676</v>
       </c>
       <c r="D380" t="n">
-        <v>-6.888731479644775</v>
+        <v>-0.4486702680587769</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-3.872213363647461</v>
+        <v>1.244028806686401</v>
       </c>
       <c r="C381" t="n">
-        <v>1.901329040527344</v>
+        <v>-0.7125347256660461</v>
       </c>
       <c r="D381" t="n">
-        <v>-6.864469051361084</v>
+        <v>-0.450602650642395</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-3.889797449111938</v>
+        <v>1.237957358360291</v>
       </c>
       <c r="C382" t="n">
-        <v>1.908013939857483</v>
+        <v>-0.7040182948112488</v>
       </c>
       <c r="D382" t="n">
-        <v>-6.891266345977783</v>
+        <v>-0.446053147315979</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-3.844011545181274</v>
+        <v>1.174897432327271</v>
       </c>
       <c r="C383" t="n">
-        <v>1.879382729530334</v>
+        <v>-0.6671491861343384</v>
       </c>
       <c r="D383" t="n">
-        <v>-6.793115139007568</v>
+        <v>-0.417685866355896</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-3.86597728729248</v>
+        <v>1.081952691078186</v>
       </c>
       <c r="C384" t="n">
-        <v>1.880739331245422</v>
+        <v>-0.5762403607368469</v>
       </c>
       <c r="D384" t="n">
-        <v>-6.802377223968506</v>
+        <v>-0.372992217540741</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-3.93969988822937</v>
+        <v>1.021599173545837</v>
       </c>
       <c r="C385" t="n">
-        <v>1.911280870437622</v>
+        <v>-0.4751424193382263</v>
       </c>
       <c r="D385" t="n">
-        <v>-6.913321018218994</v>
+        <v>-0.3442514538764954</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-3.948981046676636</v>
+        <v>1.013104677200317</v>
       </c>
       <c r="C386" t="n">
-        <v>1.917377710342407</v>
+        <v>-0.4690800309181213</v>
       </c>
       <c r="D386" t="n">
-        <v>-6.936739444732666</v>
+        <v>-0.4234320521354675</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-4.244402885437012</v>
+        <v>1.165784597396851</v>
       </c>
       <c r="C387" t="n">
-        <v>2.060247182846069</v>
+        <v>-0.5449432134628296</v>
       </c>
       <c r="D387" t="n">
-        <v>-7.457301616668701</v>
+        <v>-0.3672616481781006</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-4.150058269500732</v>
+        <v>1.105635643005371</v>
       </c>
       <c r="C388" t="n">
-        <v>2.012370109558105</v>
+        <v>-0.537647545337677</v>
       </c>
       <c r="D388" t="n">
-        <v>-7.277534961700439</v>
+        <v>-0.3478918075561523</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-4.253813743591309</v>
+        <v>1.154616832733154</v>
       </c>
       <c r="C389" t="n">
-        <v>2.063889741897583</v>
+        <v>-0.5356128811836243</v>
       </c>
       <c r="D389" t="n">
-        <v>-7.469028472900391</v>
+        <v>-0.3623108267784119</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-4.166821479797363</v>
+        <v>1.10763943195343</v>
       </c>
       <c r="C390" t="n">
-        <v>2.019776344299316</v>
+        <v>-0.5346418023109436</v>
       </c>
       <c r="D390" t="n">
-        <v>-7.306108951568604</v>
+        <v>-0.3471535444259644</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-4.255581378936768</v>
+        <v>1.16860830783844</v>
       </c>
       <c r="C391" t="n">
-        <v>2.065740585327148</v>
+        <v>-0.5345494747161865</v>
       </c>
       <c r="D391" t="n">
-        <v>-7.479146480560303</v>
+        <v>-0.3732607960700989</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-4.212033271789551</v>
+        <v>1.15683913230896</v>
       </c>
       <c r="C392" t="n">
-        <v>2.044981479644775</v>
+        <v>-0.5535274744033813</v>
       </c>
       <c r="D392" t="n">
-        <v>-7.39998722076416</v>
+        <v>-0.3630332350730896</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-4.355539321899414</v>
+        <v>1.205867409706116</v>
       </c>
       <c r="C393" t="n">
-        <v>2.116390705108643</v>
+        <v>-0.5526463389396667</v>
       </c>
       <c r="D393" t="n">
-        <v>-7.655109405517578</v>
+        <v>-0.3836921453475952</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-4.410353660583496</v>
+        <v>1.291427493095398</v>
       </c>
       <c r="C394" t="n">
-        <v>2.159712314605713</v>
+        <v>-0.5980402231216431</v>
       </c>
       <c r="D394" t="n">
-        <v>-7.779679775238037</v>
+        <v>-0.4199148416519165</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-4.220258712768555</v>
+        <v>1.117109894752502</v>
       </c>
       <c r="C395" t="n">
-        <v>2.045064449310303</v>
+        <v>-0.5437865257263184</v>
       </c>
       <c r="D395" t="n">
-        <v>-7.393323421478271</v>
+        <v>-0.3464589715003967</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-3.98656153678894</v>
+        <v>1.109736084938049</v>
       </c>
       <c r="C396" t="n">
-        <v>1.937991142272949</v>
+        <v>-0.5891851782798767</v>
       </c>
       <c r="D396" t="n">
-        <v>-7.006308555603027</v>
+        <v>-0.3761537075042725</v>
       </c>
     </row>
   </sheetData>
